--- a/Horario_Todos_domingo.xlsx
+++ b/Horario_Todos_domingo.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Representante de Servicio" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Cajer@" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Ecommerce" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Supervisor(@)" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30,7 +31,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -61,6 +62,12 @@
         <bgColor rgb="00EE82EE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -74,12 +81,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -545,44 +553,6 @@
           <val>
             <numRef>
               <f>'Representante de Servicio'!$M$2:$M$73</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="12"/>
-          <order val="12"/>
-          <tx>
-            <strRef>
-              <f>'Representante de Servicio'!N1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Representante de Servicio'!$N$2:$N$73</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="13"/>
-          <order val="13"/>
-          <tx>
-            <strRef>
-              <f>'Representante de Servicio'!O1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Representante de Servicio'!$O$2:$O$73</f>
             </numRef>
           </val>
         </ser>
@@ -1373,6 +1343,144 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Supervisor(@)'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Supervisor(@)'!$B$2:$B$73</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Supervisor(@)'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Supervisor(@)'!$C$2:$C$73</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Supervisor(@)'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Supervisor(@)'!$D$2:$D$73</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'Supervisor(@)'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Supervisor(@)'!$E$2:$E$73</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'Supervisor(@)'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Supervisor(@)'!$F$2:$F$73</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -1455,6 +1563,33 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>74</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -3020,7 +3155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3041,70 +3176,60 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ROMINA JHINET ARAUJO MORALES</t>
+          <t>MARIA FERNANDA CALLAÃ‘AUPA HUAMAN</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA CALLAÃ‘AUPA HUAMAN</t>
+          <t>SEAN ANDRE ATO PECHO</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>SEAN ANDRE ATO PECHO</t>
+          <t>VENUS ANUSKA ROMERO HAÃ‘ARI</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>VENUS ANUSKA ROMERO HAÃ‘ARI</t>
+          <t>XIOMARA LIZBETH LINARES IBARRA</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>XIOMARA LIZBETH LINARES IBARRA</t>
+          <t>ELIZABETH RAIME QUISPE</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>ELIZABETH RAIME QUISPE</t>
+          <t>KATHERINE LIZBET CASTILLO GARCIA</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>JUDELY AYDEE PINEDA VASQUEZ</t>
+          <t>ENRIQUE HUMBERTO DANIEL LOPEZ LOPEZ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>KATHERINE LIZBET CASTILLO GARCIA</t>
+          <t>PILAR SINTYA RAMIREZ COTERA</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>ENRIQUE HUMBERTO DANIEL LOPEZ LOPEZ</t>
+          <t>LUIS ALEXANDER PACULIA ESTANISLAO</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>PILAR SINTYA RAMIREZ COTERA</t>
+          <t>MIGUEL FERNANDO MANTARI PEREZ</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>LUIS ALEXANDER PACULIA ESTANISLAO</t>
+          <t>MARCO ANTONIO SALVATIERRA PAREJA</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
-        <is>
-          <t>MIGUEL FERNANDO MANTARI PEREZ</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>MARCO ANTONIO SALVATIERRA PAREJA</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
         <is>
           <t># de Personal</t>
         </is>
@@ -3116,7 +3241,7 @@
           <t>06:00 - 06:15</t>
         </is>
       </c>
-      <c r="P2" t="n">
+      <c r="N2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3126,7 +3251,7 @@
           <t>06:15 - 06:30</t>
         </is>
       </c>
-      <c r="P3" t="n">
+      <c r="N3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3141,7 +3266,7 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="P4" t="n">
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3156,7 +3281,7 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="P5" t="n">
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3171,13 +3296,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>2</v>
+      <c r="N6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3191,13 +3311,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
+      <c r="N7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -3216,13 +3331,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
+      <c r="N8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -3241,13 +3351,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
+      <c r="N9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -3271,13 +3376,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
+      <c r="N10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -3301,13 +3401,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
+      <c r="N11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -3331,13 +3426,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
+      <c r="N12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -3361,13 +3451,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
+      <c r="N13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -3391,13 +3476,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
+      <c r="N14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -3421,13 +3501,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
+      <c r="N15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -3451,13 +3526,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
+      <c r="N16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -3481,13 +3551,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
+      <c r="N17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -3511,13 +3576,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
+      <c r="N18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -3546,13 +3606,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
+      <c r="N19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -3581,13 +3636,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
+      <c r="N20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -3616,13 +3666,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
+      <c r="N21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -3651,13 +3696,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
+      <c r="N22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -3671,7 +3711,7 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -3686,13 +3726,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
+      <c r="N23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -3706,7 +3741,7 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -3726,13 +3761,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>6</v>
+      <c r="N24" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -3746,7 +3776,7 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -3761,13 +3791,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
+      <c r="N25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -3781,7 +3806,7 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -3796,18 +3821,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>6</v>
+      <c r="N26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -3821,7 +3836,7 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -3836,18 +3851,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>6</v>
+      <c r="N27" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -3861,7 +3866,7 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -3876,18 +3881,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>6</v>
+      <c r="N28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -3901,7 +3896,7 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -3916,18 +3911,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P29" t="n">
-        <v>6</v>
+      <c r="N29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -3941,7 +3926,7 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -3956,18 +3941,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>6</v>
+      <c r="N30" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -3981,7 +3956,7 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -3996,18 +3971,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>6</v>
+      <c r="N31" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -4021,7 +3986,7 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -4036,18 +4001,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P32" t="n">
-        <v>6</v>
+      <c r="N32" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -4061,7 +4016,7 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -4076,18 +4031,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P33" t="n">
-        <v>6</v>
+      <c r="N33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -4101,7 +4046,7 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="E34" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -4126,18 +4071,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P34" t="n">
-        <v>8</v>
+      <c r="N34" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -4151,7 +4086,7 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -4176,18 +4111,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
-        <v>8</v>
+      <c r="N35" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -4201,7 +4126,7 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -4226,18 +4151,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>8</v>
+      <c r="N36" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -4251,7 +4166,7 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="E37" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -4276,18 +4191,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P37" t="n">
-        <v>8</v>
+      <c r="N37" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -4301,12 +4206,12 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr">
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -4321,18 +4226,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P38" t="n">
-        <v>7</v>
+      <c r="N38" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -4346,12 +4241,12 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="inlineStr">
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -4361,18 +4256,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P39" t="n">
-        <v>6</v>
+      <c r="N39" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -4381,12 +4266,12 @@
           <t>15:30 - 15:45</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -4406,18 +4291,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="L40" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="M40" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P40" t="n">
-        <v>7</v>
+      <c r="N40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -4426,12 +4301,12 @@
           <t>15:45 - 16:00</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -4451,18 +4326,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="L41" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="M41" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P41" t="n">
-        <v>7</v>
+      <c r="N41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -4471,7 +4336,12 @@
           <t>16:00 - 16:15</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr">
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -4491,18 +4361,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="L42" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="M42" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P42" t="n">
-        <v>6</v>
+      <c r="N42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -4511,7 +4371,12 @@
           <t>16:15 - 16:30</t>
         </is>
       </c>
-      <c r="F43" s="2" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -4531,18 +4396,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="M43" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P43" t="n">
-        <v>6</v>
+      <c r="N43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -4551,7 +4406,12 @@
           <t>16:30 - 16:45</t>
         </is>
       </c>
-      <c r="F44" s="2" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -4571,18 +4431,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="L44" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="M44" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P44" t="n">
-        <v>6</v>
+      <c r="N44" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -4591,7 +4441,12 @@
           <t>16:45 - 17:00</t>
         </is>
       </c>
-      <c r="F45" s="2" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -4611,18 +4466,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="L45" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="M45" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>6</v>
+      <c r="N45" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -4631,7 +4476,12 @@
           <t>17:00 - 17:15</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -4651,18 +4501,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="L46" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="M46" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P46" t="n">
-        <v>6</v>
+      <c r="N46" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -4671,7 +4511,12 @@
           <t>17:15 - 17:30</t>
         </is>
       </c>
-      <c r="F47" s="2" t="inlineStr">
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -4691,18 +4536,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="L47" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="M47" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P47" t="n">
-        <v>6</v>
+      <c r="N47" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -4711,7 +4546,12 @@
           <t>17:30 - 17:45</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -4731,18 +4571,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="L48" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="M48" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P48" t="n">
-        <v>6</v>
+      <c r="N48" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -4751,7 +4581,12 @@
           <t>17:45 - 18:00</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -4771,18 +4606,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="L49" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="M49" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P49" t="n">
-        <v>6</v>
+      <c r="N49" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -4791,7 +4616,12 @@
           <t>18:00 - 18:15</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -4811,18 +4641,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="M50" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P50" t="n">
-        <v>6</v>
+      <c r="N50" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -4831,7 +4651,12 @@
           <t>18:15 - 18:30</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -4851,18 +4676,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="M51" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P51" t="n">
-        <v>6</v>
+      <c r="N51" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -4871,7 +4686,12 @@
           <t>18:30 - 18:45</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -4891,18 +4711,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="L52" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="M52" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P52" t="n">
-        <v>6</v>
+      <c r="N52" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -4911,7 +4721,12 @@
           <t>18:45 - 19:00</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -4931,18 +4746,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="L53" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="M53" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P53" t="n">
-        <v>6</v>
+      <c r="N53" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -4951,7 +4756,12 @@
           <t>19:00 - 19:15</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
@@ -4971,18 +4781,8 @@
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="L54" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="M54" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P54" t="n">
-        <v>6</v>
+      <c r="N54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -4991,33 +4791,28 @@
           <t>19:15 - 19:30</t>
         </is>
       </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="N55" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="O55" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P55" t="n">
-        <v>5</v>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -5026,33 +4821,28 @@
           <t>19:30 - 19:45</t>
         </is>
       </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="N56" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="O56" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P56" t="n">
-        <v>5</v>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -5061,33 +4851,28 @@
           <t>19:45 - 20:00</t>
         </is>
       </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="N57" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="O57" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P57" t="n">
-        <v>5</v>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -5096,33 +4881,28 @@
           <t>20:00 - 20:15</t>
         </is>
       </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="N58" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="O58" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P58" t="n">
-        <v>5</v>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -5131,33 +4911,28 @@
           <t>20:15 - 20:30</t>
         </is>
       </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
       <c r="I59" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="N59" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="O59" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P59" t="n">
-        <v>5</v>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -5166,33 +4941,28 @@
           <t>20:30 - 20:45</t>
         </is>
       </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="N60" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="O60" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P60" t="n">
-        <v>5</v>
+      <c r="L60" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="M60" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -5201,33 +4971,28 @@
           <t>20:45 - 21:00</t>
         </is>
       </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
           <t>EN TURNO</t>
         </is>
       </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="N61" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="O61" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P61" t="n">
-        <v>5</v>
+      <c r="L61" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="M61" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -5236,27 +5001,27 @@
           <t>21:00 - 21:15</t>
         </is>
       </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="N62" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="O62" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P62" t="n">
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="L62" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="M62" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5266,27 +5031,27 @@
           <t>21:15 - 21:30</t>
         </is>
       </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="N63" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="O63" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P63" t="n">
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="M63" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5296,27 +5061,27 @@
           <t>21:30 - 21:45</t>
         </is>
       </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="N64" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="O64" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P64" t="n">
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="M64" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5326,27 +5091,27 @@
           <t>21:45 - 22:00</t>
         </is>
       </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="K65" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="N65" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="O65" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P65" t="n">
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="I65" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="L65" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="M65" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5356,27 +5121,27 @@
           <t>22:00 - 22:15</t>
         </is>
       </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="K66" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="N66" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="O66" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P66" t="n">
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="L66" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="M66" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5386,27 +5151,27 @@
           <t>22:15 - 22:30</t>
         </is>
       </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="N67" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="O67" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P67" t="n">
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="L67" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="M67" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5416,27 +5181,27 @@
           <t>22:30 - 22:45</t>
         </is>
       </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="N68" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="O68" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P68" t="n">
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="L68" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="M68" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5446,27 +5211,27 @@
           <t>22:45 - 23:00</t>
         </is>
       </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="N69" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="O69" s="2" t="inlineStr">
-        <is>
-          <t>EN TURNO</t>
-        </is>
-      </c>
-      <c r="P69" t="n">
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="L69" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="M69" s="2" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5476,7 +5241,7 @@
           <t>23:00 - 23:15</t>
         </is>
       </c>
-      <c r="P70" t="n">
+      <c r="N70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5486,7 +5251,7 @@
           <t>23:15 - 23:30</t>
         </is>
       </c>
-      <c r="P71" t="n">
+      <c r="N71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5496,7 +5261,7 @@
           <t>23:30 - 23:45</t>
         </is>
       </c>
-      <c r="P72" t="n">
+      <c r="N72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5506,7 +5271,7 @@
           <t>23:45 - 24:00</t>
         </is>
       </c>
-      <c r="P73" t="n">
+      <c r="N73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10708,4 +10473,1471 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Intervalos</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ROSARIO TAQUIRE</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>FIORELA ARELLAN</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>MOISES REYNOSO</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>YENNIFER SUAREZ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>GUSTAVO TORRES</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t># de Personal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>06:00 - 06:15</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>06:15 - 06:30</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>06:30 - 06:45</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>06:45 - 07:00</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>07:00 - 07:15</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>07:15 - 07:30</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>07:30 - 07:45</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>07:45 - 08:00</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>08:00 - 08:15</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>08:15 - 08:30</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>08:30 - 08:45</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>08:45 - 09:00</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>09:00 - 09:15</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>09:15 - 09:30</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>09:30 - 09:45</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>09:45 - 10:00</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>10:00 - 10:15</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>10:15 - 10:30</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>10:30 - 10:45</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10:45 - 11:00</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>11:00 - 11:15</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>11:15 - 11:30</t>
+        </is>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>11:30 - 11:45</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>11:45 - 12:00</t>
+        </is>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>12:00 - 12:15</t>
+        </is>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>12:15 - 12:30</t>
+        </is>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>12:30 - 12:45</t>
+        </is>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>12:45 - 13:00</t>
+        </is>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>13:00 - 13:15</t>
+        </is>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>13:15 - 13:30</t>
+        </is>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>13:30 - 13:45</t>
+        </is>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>13:45 - 14:00</t>
+        </is>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>14:00 - 14:15</t>
+        </is>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>14:15 - 14:30</t>
+        </is>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>14:30 - 14:45</t>
+        </is>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>14:45 - 15:00</t>
+        </is>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>15:00 - 15:15</t>
+        </is>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>15:15 - 15:30</t>
+        </is>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>15:30 - 15:45</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="E40" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>15:45 - 16:00</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="E41" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>16:00 - 16:15</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="E42" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>16:15 - 16:30</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="E43" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>16:30 - 16:45</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="E44" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>16:45 - 17:00</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="E45" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>17:00 - 17:15</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>17:15 - 17:30</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="E47" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>17:30 - 17:45</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="E48" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>17:45 - 18:00</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="E49" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>18:00 - 18:15</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="E50" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="E51" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>18:30 - 18:45</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="E52" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>18:45 - 19:00</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="E53" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>19:00 - 19:15</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="E54" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>19:15 - 19:30</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="F55" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>19:30 - 19:45</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="F56" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>19:45 - 20:00</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="F57" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20:00 - 20:15</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="F58" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>20:15 - 20:30</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="F59" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>20:30 - 20:45</t>
+        </is>
+      </c>
+      <c r="D60" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="F60" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>20:45 - 21:00</t>
+        </is>
+      </c>
+      <c r="D61" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="F61" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>21:00 - 21:15</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="F62" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>21:15 - 21:30</t>
+        </is>
+      </c>
+      <c r="D63" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="F63" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>21:30 - 21:45</t>
+        </is>
+      </c>
+      <c r="D64" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="F64" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>21:45 - 22:00</t>
+        </is>
+      </c>
+      <c r="D65" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="F65" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>22:00 - 22:15</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="F66" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>22:15 - 22:30</t>
+        </is>
+      </c>
+      <c r="D67" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="F67" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>22:30 - 22:45</t>
+        </is>
+      </c>
+      <c r="D68" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="F68" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>22:45 - 23:00</t>
+        </is>
+      </c>
+      <c r="D69" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="F69" s="5" t="inlineStr">
+        <is>
+          <t>EN TURNO</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>23:00 - 23:15</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>23:15 - 23:30</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>23:30 - 23:45</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>23:45 - 24:00</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>